--- a/biology/Histoire de la zoologie et de la botanique/Bradford_Torrey/Bradford_Torrey.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Bradford_Torrey/Bradford_Torrey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bradford Torrey est un ornithologue américain, né le 9 octobre 1843 à Weymouth (Massachusetts) et mort le 7 octobre 1912.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On ne connaît que peu de choses avant la parution des premiers écrits de Torrey. Il est le fils de Samuel et de Sophronia (née Dyer) Torrey.
 Après l’obtention de son baccalauréat, il commence à travailler dans une fabrique de chaussures. Après la Guerre civile américaine, vers 1870, il commence dans les services du Treasurer of the American Board of Commissioners for Foreign Missions. En 1886, son nom étant de plus en plus connu, il est embauché par un magazine populaire, Youth’s Companion. Il s’occupe la rubrique divers (Miscellany) du magazine. Il y travaille jusqu’en 1901 avant de travailler sur les journaux de Henry David Thoreau (1817-1862). Il assure une édition de luxe de Walden et supervise la première édition de ses journaux (en 14 volumes).
@@ -544,17 +558,19 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1885 : Birds in the bush[1] (Houghton, Mifflin and company, Boston).
-1889 : A rambler's lease[2] (Houghton, Mifflin and company, Boston).
-1896 : The foot-path way[3] (Houghton, Mifflin and company, Boston).
-1896 : Spring notes from Tennessee[4] (Houghton, Mifflin and company, Boston).
-1898 : A world of green hills; observations of nature and human nature in the Blue Ridge[5] (Houghton, Mifflin and company, Boston).
-1901 : Footing it in Franconia[6] (Houghton, Mifflin and company, Boston).
-1901 : Everyday birds : elementary studies[7] (Houghton, Mifflin and company, Boston).
-1903 : The clerk of the woods[8] (Houghton, Mifflin and company, Boston).
-1904 : Nature's invitation; notes of a bird-gazer north and south[9] (Houghton, Mifflin and company, Boston).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1885 : Birds in the bush (Houghton, Mifflin and company, Boston).
+1889 : A rambler's lease (Houghton, Mifflin and company, Boston).
+1896 : The foot-path way (Houghton, Mifflin and company, Boston).
+1896 : Spring notes from Tennessee (Houghton, Mifflin and company, Boston).
+1898 : A world of green hills; observations of nature and human nature in the Blue Ridge (Houghton, Mifflin and company, Boston).
+1901 : Footing it in Franconia (Houghton, Mifflin and company, Boston).
+1901 : Everyday birds : elementary studies (Houghton, Mifflin and company, Boston).
+1903 : The clerk of the woods (Houghton, Mifflin and company, Boston).
+1904 : Nature's invitation; notes of a bird-gazer north and south (Houghton, Mifflin and company, Boston).</t>
         </is>
       </c>
     </row>
